--- a/automated.xlsx
+++ b/automated.xlsx
@@ -3,13 +3,15 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вклады" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="НС" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="alfa" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="gazprom" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="alfa_curr" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="gazprom" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="sber" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -429,10 +431,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:O1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -441,376 +443,7 @@
     <col width="11.6640625" customWidth="1" min="3" max="3"/>
     <col width="13.33203125" customWidth="1" min="4" max="4"/>
   </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ВТБ</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>1 мес</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>2 мес</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>3 мес</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>6 мес</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>8 мес</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>12 мес</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>14 мес</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>16 мес</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>18 мес</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>24 мес</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>36 мес</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>60 мес</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>500 тыс</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>1 млн</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2 млн</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>3 млн</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5 млн</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>10 млн</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>20 млн</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -821,10 +454,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D7" sqref="A2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -848,7 +481,7 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Настоящая ставка</t>
+          <t>Реальная ставка</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -860,12 +493,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>gazprom</t>
+          <t>alfa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Накопительный счет «Управляй процентом»</t>
+          <t>Накопительный Альфа-Счёт</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -880,36 +513,41 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>vtb</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Накопительный счет «Трать и копи»</t>
+          <t>Накопительный счет «Сейф»</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>6%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>8%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>Накопительный счет</t>
+          <t>Накопительный счет «Копилка»</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0,01%</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6%</t>
         </is>
       </c>
     </row>
@@ -919,6 +557,11 @@
           <t>sber</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Накопительный счёт</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>5 %</t>
@@ -977,22 +620,56 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>alfa</t>
+          <t>gazprom</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Накопительный Альфа-Счёт</t>
+          <t>Накопительный счет «Управляй процентом»</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>9%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>4%</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Накопительный счет «Трать и копи»</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>9%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Накопительный счет</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6,5%</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0,01%</t>
         </is>
       </c>
     </row>
@@ -1007,105 +684,116 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <cols>
-    <col width="11.33203125" customWidth="1" min="1" max="1"/>
+    <col width="23.88671875" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Альфа</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>3 месяца</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>6 месяцев</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>9 месяцев</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>1 год</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>1,5 года</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>2 года</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>3 года</t>
+          <t>Розница</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Премиум</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>Без опциий</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>6,54 %</t>
+          <t>3 месяца</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>7,10 %</t>
+          <t>6 месяцев</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>7,17 %</t>
+          <t>9 месяцев</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7,50 %</t>
+          <t>1 год</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7,91 %</t>
+          <t>1,5 года</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>8,06 %</t>
+          <t>2 года</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>8,38 %</t>
+          <t>3 года</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>Без опций</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3 месяца</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6 месяцев</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>9 месяцев</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1,5 года</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>3 года</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1000000</t>
+          <t>500000</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1140,14 +828,49 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>9,01 %</t>
+          <t>8,38 %</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>8,38 %</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2000000</t>
+          <t>1000000</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1181,6 +904,41 @@
         </is>
       </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>9,01 %</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
         <is>
           <t>9,01 %</t>
         </is>
@@ -1189,7 +947,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3000000</t>
+          <t>2000000</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1223,6 +981,41 @@
         </is>
       </c>
       <c r="H5" t="inlineStr">
+        <is>
+          <t>9,01 %</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
         <is>
           <t>9,01 %</t>
         </is>
@@ -1231,7 +1024,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5000000</t>
+          <t>3000000</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1265,6 +1058,41 @@
         </is>
       </c>
       <c r="H6" t="inlineStr">
+        <is>
+          <t>9,01 %</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
         <is>
           <t>9,01 %</t>
         </is>
@@ -1273,7 +1101,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>10000000</t>
+          <t>5000000</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1307,6 +1135,41 @@
         </is>
       </c>
       <c r="H7" t="inlineStr">
+        <is>
+          <t>9,01 %</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
         <is>
           <t>9,01 %</t>
         </is>
@@ -1315,42 +1178,916 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="G8" s="1" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>9,01 %</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>9,01 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
           <t>20000000</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>6,54 %</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>7,10 %</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>7,17 %</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>7,50 %</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>7,91 %</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>8,06 %</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>9,01 %</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>7,91 %</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>8,06 %</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>9,01 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>с пополнением</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>С пополнением</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2000000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>6,12 %</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>5,64 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20000000</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>с пополнением и снятием</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>С пополнением и снятием</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2000000</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>6,43 %</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>6,59 %</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>5,60 %</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>5,12 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>20000000</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>6,54 %</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>7,10 %</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>7,17 %</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>7,50 %</t>
         </is>
       </c>
     </row>
@@ -1365,15 +2102,2083 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:R14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Розница</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Премиум</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3 месяца</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>6 месяцев</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9 месяцев</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1,5 года</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>3 года</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>3 месяца</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>6 месяцев</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>9 месяцев</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>1,5 года</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>3 года</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1000$</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>1000$</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>25000$</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>25000$</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>50000$</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>50000$</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>100000$</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>100000$</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>300000$</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>300000$</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>3 месяца</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>6 месяцев</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9 месяцев</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1,5 года</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>3 года</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>3 месяца</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6 месяцев</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>9 месяцев</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>1,5 года</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>3 года</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1000€</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>1000€</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>25000€</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>25000€</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>50000€</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>50000€</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>100000€</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>100000€</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>300000€</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>300000€</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0,10 %</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P29"/>
+  <sheetViews>
+    <sheetView zoomScale="64" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <cols>
+    <col width="24.44140625" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="10" max="10"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Розница</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Премиум</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Без опций</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 мес</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>3 мес</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6 мес</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2 года</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3 года</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Без опций</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2000000</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>20000000</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>6,8%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5,5%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>5,4%</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>6,99%</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>7,1%</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>6,21%</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>С пополнением и снятием</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3 мес</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>6 мес</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1 год</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>С пополнением и снятием</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1000000</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>4,72%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5,05%</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3,66%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>5,02%</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>5,35%</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>3,96%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2000000</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3000000</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>5000000</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>10000000</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>20000000</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>4,82%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>5,15%</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>5,45%</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>"Ваш успех" с капитализ.</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>548 дней</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1095 дней</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>от 50 000 ₽ до 10 000 000 ₽</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5.83%</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>6.07%</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>7.23%</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>5.72%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.38%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>"Копить" с капитализ.</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>31 день</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>731 день</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1095 дней</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>от 15 000 ₽</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5.1%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5.93%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.69%</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>6.8%</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.91%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>5.5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>"Управлять" c капитализ.</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>91 день</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>181 день</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>367 дней</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>от 50 000 ₽ до 499 999.99 ₽</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4.52%</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>4.85%</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>3.45%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>от 500 000 ₽ до 1 499 999.99 ₽</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4.62%</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4.95%</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>от 1 500 000 ₽</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4.72%</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>5.05%</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.66%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Премиальным клиентам — 0,3%</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Розница</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/automated.xlsx
+++ b/automated.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Вклады" sheetId="1" state="visible" r:id="rId1"/>
@@ -454,10 +454,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A2:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A1:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -471,61 +471,61 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Банк</t>
+          <t>alfa</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Название счёта</t>
+          <t>Накопительный Альфа-Счёт</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Реальная ставка</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Рекламная ставка</t>
+          <t>9%</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>alfa</t>
+          <t>sber</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Накопительный Альфа-Счёт</t>
+          <t>Накопительный счёт</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>5 %</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>7 %</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>vtb</t>
+          <t>mkb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Накопительный счет «Сейф»</t>
+          <t>Накопительный счет</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>5%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,141 +535,104 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>rshb</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Накопительный счет «Копилка»</t>
+          <t>Накопительный счет «Моя копилка»</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>6,50%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>7,00%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>sber</t>
+          <t>gazprom</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Накопительный счёт</t>
+          <t>Накопительный счет «Управляй процентом»</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>5 %</t>
+          <t>4%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>7 %</t>
+          <t>9%</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>mkb</t>
-        </is>
-      </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>Накопительный счет «Трать и копи»</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>4%</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Накопительный счет «Ежедневный процент»</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Накопительный счет</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>5%</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>rshb</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Накопительный счет «Моя копилка»</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>6,50%</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>7,00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>gazprom</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Накопительный счет «Управляй процентом»</t>
-        </is>
-      </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>4%</t>
+          <t>6,5%</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Накопительный счет «Трать и копи»</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4%</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Накопительный счет</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>6,5%</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0,01%</t>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>psb</t>
         </is>
       </c>
     </row>
@@ -2104,7 +2067,7 @@
   </sheetPr>
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
